--- a/rpt/Liste_Composants/carte_electronique_didactique_PittetL02_Project.xlsx
+++ b/rpt/Liste_Composants/carte_electronique_didactique_PittetL02_Project.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{79A1EDDE-C0F9-4411-8140-51E9605E945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,18 +851,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,12 +916,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -902,23 +937,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -935,26 +955,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,13 +1287,13 @@
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="str">
+      <c r="B3" s="43" t="str">
         <f>CONCATENATE("",Sheet2!A5)</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1322,46 +1322,46 @@
     </row>
     <row r="5" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="30" t="str">
         <f>Sheet2!A4</f>
         <v>1.0.1</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1369,14 +1369,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -1388,10 +1388,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -1403,10 +1403,10 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -1415,13 +1415,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="47" t="str">
         <f>B3</f>
         <v>EuroCircuit  1.0.1</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1454,14 +1454,14 @@
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
@@ -1489,17 +1489,17 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <f>ROW(B13) - ROW($B$12)</f>
+        <f t="shared" ref="A14:A41" si="0">ROW(B13) - ROW($B$12)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="29">
         <v>1</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18" t="s">
         <v>56</v>
@@ -1520,23 +1520,23 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="M14" s="20">
-        <f>L14*B14</f>
+        <f t="shared" ref="M14:M41" si="1">L14*B14</f>
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
-        <f>ROW(B14) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
         <v>57</v>
@@ -1557,23 +1557,23 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="M15" s="20">
-        <f>L15*B15</f>
+        <f t="shared" si="1"/>
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
-        <f>ROW(B15) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="29">
         <v>1</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
         <v>58</v>
@@ -1594,23 +1594,23 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="M16" s="20">
-        <f>L16*B16</f>
+        <f t="shared" si="1"/>
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
-        <f>ROW(B16) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="32">
         <v>1</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
         <v>59</v>
@@ -1631,23 +1631,23 @@
         <v>0.16</v>
       </c>
       <c r="M17" s="20">
-        <f>L17*B17</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
-        <f>ROW(B17) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18" t="s">
         <v>60</v>
@@ -1668,23 +1668,23 @@
         <v>1.43</v>
       </c>
       <c r="M18" s="20">
-        <f>L18*B18</f>
+        <f t="shared" si="1"/>
         <v>1.43</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
-        <f>ROW(B18) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="32">
         <v>1</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18" t="s">
         <v>61</v>
@@ -1705,23 +1705,23 @@
         <v>3.7</v>
       </c>
       <c r="M19" s="20">
-        <f>L19*B19</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
-        <f>ROW(B19) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="29">
         <v>1</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18" t="s">
         <v>62</v>
@@ -1742,23 +1742,23 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="M20" s="20">
-        <f>L20*B20</f>
+        <f t="shared" si="1"/>
         <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
-        <f>ROW(B20) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B21" s="32">
         <v>4</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
         <v>63</v>
@@ -1769,23 +1769,23 @@
       <c r="K21" s="18"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20">
-        <f>L21*B21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
-        <f>ROW(B21) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="29">
         <v>2</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="17">
         <v>805</v>
       </c>
@@ -1808,23 +1808,23 @@
         <v>0.46</v>
       </c>
       <c r="M22" s="20">
-        <f>L22*B22</f>
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
-        <f>ROW(B22) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B23" s="32">
         <v>6</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17">
         <v>805</v>
       </c>
@@ -1847,23 +1847,23 @@
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="M23" s="20">
-        <f>L23*B23</f>
+        <f t="shared" si="1"/>
         <v>0.14280000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
-        <f>ROW(B23) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="17" t="s">
         <v>42</v>
       </c>
@@ -1886,23 +1886,23 @@
         <v>0.18</v>
       </c>
       <c r="M24" s="20">
-        <f>L24*B24</f>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
-        <f>ROW(B24) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B25" s="32">
         <v>1</v>
       </c>
       <c r="C25" s="32"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="17" t="s">
         <v>43</v>
       </c>
@@ -1919,23 +1919,23 @@
       <c r="K25" s="18"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20">
-        <f>L25*B25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
-        <f>ROW(B25) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="29">
         <v>2</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="17" t="s">
         <v>44</v>
       </c>
@@ -1952,23 +1952,23 @@
       <c r="K26" s="18"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20">
-        <f>L26*B26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
-        <f>ROW(B26) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B27" s="32">
         <v>2</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="17" t="s">
         <v>45</v>
       </c>
@@ -1991,23 +1991,23 @@
         <v>0.24</v>
       </c>
       <c r="M27" s="20">
-        <f>L27*B27</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
-        <f>ROW(B27) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="29">
         <v>2</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="17" t="s">
         <v>46</v>
       </c>
@@ -2030,23 +2030,23 @@
         <v>0.86</v>
       </c>
       <c r="M28" s="20">
-        <f>L28*B28</f>
+        <f t="shared" si="1"/>
         <v>1.72</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
-        <f>ROW(B28) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B29" s="32">
         <v>2</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="17" t="s">
         <v>47</v>
       </c>
@@ -2063,23 +2063,23 @@
       <c r="K29" s="18"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20">
-        <f>L29*B29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
-        <f>ROW(B29) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="29">
         <v>5</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="17" t="s">
         <v>48</v>
       </c>
@@ -2096,23 +2096,23 @@
       <c r="K30" s="18"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20">
-        <f>L30*B30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
-        <f>ROW(B30) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B31" s="32">
         <v>3</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="17" t="s">
         <v>49</v>
       </c>
@@ -2129,23 +2129,23 @@
       <c r="K31" s="18"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20">
-        <f>L31*B31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
-        <f>ROW(B31) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="29">
         <v>1</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="17" t="s">
         <v>50</v>
       </c>
@@ -2168,23 +2168,23 @@
         <v>0.08</v>
       </c>
       <c r="M32" s="20">
-        <f>L32*B32</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
-        <f>ROW(B32) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B33" s="32">
         <v>2</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="17" t="s">
         <v>51</v>
       </c>
@@ -2207,23 +2207,23 @@
         <v>0.08</v>
       </c>
       <c r="M33" s="20">
-        <f>L33*B33</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
-        <f>ROW(B33) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="29">
         <v>1</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="17" t="s">
         <v>52</v>
       </c>
@@ -2246,23 +2246,23 @@
         <v>0.08</v>
       </c>
       <c r="M34" s="20">
-        <f>L34*B34</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
-        <f>ROW(B34) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B35" s="32">
         <v>1</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="17" t="s">
         <v>53</v>
       </c>
@@ -2285,23 +2285,23 @@
         <v>0.08</v>
       </c>
       <c r="M35" s="20">
-        <f>L35*B35</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
-        <f>ROW(B35) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="29">
         <v>5</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="17" t="s">
         <v>53</v>
       </c>
@@ -2324,23 +2324,23 @@
         <v>0.08</v>
       </c>
       <c r="M36" s="20">
-        <f>L36*B36</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
-        <f>ROW(B36) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B37" s="32">
         <v>1</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="17" t="s">
         <v>53</v>
       </c>
@@ -2363,23 +2363,23 @@
         <v>0.08</v>
       </c>
       <c r="M37" s="20">
-        <f>L37*B37</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
-        <f>ROW(B37) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="29">
         <v>4</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="17" t="s">
         <v>53</v>
       </c>
@@ -2402,23 +2402,23 @@
         <v>0.08</v>
       </c>
       <c r="M38" s="20">
-        <f>L38*B38</f>
+        <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
-        <f>ROW(B38) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B39" s="32">
         <v>1</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="17" t="s">
         <v>53</v>
       </c>
@@ -2441,23 +2441,23 @@
         <v>0.08</v>
       </c>
       <c r="M39" s="20">
-        <f>L39*B39</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
-        <f>ROW(B39) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="29">
         <v>1</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="17" t="s">
         <v>53</v>
       </c>
@@ -2480,23 +2480,23 @@
         <v>0.08</v>
       </c>
       <c r="M40" s="20">
-        <f>L40*B40</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
-        <f>ROW(B40) - ROW($B$12)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B41" s="32">
         <v>2</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="27"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="17" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0.61</v>
       </c>
       <c r="M41" s="20">
-        <f>L41*B41</f>
+        <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
     </row>
@@ -2540,65 +2540,6 @@
     <row r="44" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B3:E3"/>
@@ -2610,6 +2551,65 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2634,21 +2634,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="26" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="26" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="1"/>
@@ -2671,17 +2671,17 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="27" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="26" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2693,13 +2693,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="e">
+      <c r="A13" s="57" t="e">
         <f>CONCATENATE(Sheet2!A18,"[",Sheet2!#REF!,"]",Sheet2!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -2726,15 +2726,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098AFC7C83C7C054E95F4B42F91168742" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="66e3d8284d9fc5410f6939df54f0caa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c73ba516-6d34-4b92-a096-ac7dfb020022" xmlns:ns3="ebd706b7-678b-40df-972d-f0eaa6262b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea909251fc86ece970dc0ed8cbb70340" ns2:_="" ns3:_="">
     <xsd:import namespace="c73ba516-6d34-4b92-a096-ac7dfb020022"/>
@@ -2941,15 +2932,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF1807D-2C11-4442-B446-3E1610E4AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2966,4 +2958,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64E99E-77F3-4A44-9FA2-482228DEF9ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>